--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>648200.5835477004</v>
+        <v>644034.0505460724</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6528279.443747056</v>
+        <v>6528279.443747054</v>
       </c>
     </row>
     <row r="9">
@@ -1214,16 +1214,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1268,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>17.8422975499833</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>352.3954878227178</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>124.6899519369922</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,16 +1530,16 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>42.38852593713486</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.0937685836068</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1593,7 +1593,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>68.32956683724687</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>42.83083614393662</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>154.8929666931715</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>104.0104447315771</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>4.333751187612568</v>
       </c>
     </row>
     <row r="17">
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>185.457111283208</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>153.5977912503756</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>40.06170608735098</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2007,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258704</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
@@ -2061,7 +2061,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>88.28613195498679</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>202.1576268581165</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>154.8929666931718</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>44.17482029426311</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T21" t="n">
         <v>124.8306395731037</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258704</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>201.3550464126554</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2320,22 +2320,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>24.17542353266401</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.3081572941393</v>
+        <v>14.81285372852358</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.46815833415826</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2484,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>76.13612422041876</v>
+        <v>40.98343139553045</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2557,19 +2557,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>38.46815833415825</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>215.3269856084896</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>360.9297976545789</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>50.56824832694723</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>61.52099607453885</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T28" t="n">
-        <v>239.6907226285777</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>275.6010546203353</v>
       </c>
       <c r="V28" t="n">
-        <v>230.2238366173717</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2797,19 +2797,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>272.2390022204444</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.46815833415828</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T29" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>3.105644063367799</v>
       </c>
       <c r="W29" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,13 +3009,13 @@
         <v>275.6010546203353</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>192.1616535569227</v>
+        <v>10.77391730460246</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3031,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>292.3277627322436</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>301.1546350748429</v>
       </c>
     </row>
     <row r="33">
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>134.8550812659119</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.17452297464828</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.6907226285777</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.4797640849558</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>282.3901967617572</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4743901009363</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>134.8550812659119</v>
       </c>
       <c r="E37" t="n">
-        <v>84.9489903931517</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3502,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>350.0987133728739</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>317.1445653275402</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>81.10777955187406</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.6907226285777</v>
       </c>
       <c r="U40" t="n">
-        <v>217.2203054734906</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>228.8362472300815</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3748,7 +3748,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.46815833415827</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>234.9851346407184</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3918,7 +3918,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I43" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>239.6907226285777</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3963,10 +3963,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>173.3155437345033</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.5595078786914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>235.2843219191971</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4377336227562</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.3081572941393</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>38.46815833415827</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>43.14708116456612</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4155,7 +4155,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I46" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T46" t="n">
-        <v>80.14694373259837</v>
+        <v>213.907128353347</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4203,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="C9" t="n">
-        <v>3.305200243802188</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="D9" t="n">
-        <v>3.305200243802188</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="E9" t="n">
-        <v>3.305200243802188</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="F9" t="n">
         <v>3.305200243802188</v>
@@ -4895,16 +4895,16 @@
         <v>82.43760303375414</v>
       </c>
       <c r="N9" t="n">
-        <v>100.5772628177064</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O9" t="n">
-        <v>117.1715076498293</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P9" t="n">
-        <v>130.4898521020749</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.3928126638406</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
@@ -4916,19 +4916,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>128.5021791757032</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>86.76985286506957</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="X9" t="n">
-        <v>45.03752655443588</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.305200243802188</v>
+        <v>165.2600121901094</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="C10" t="n">
-        <v>3.305200243802188</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D10" t="n">
-        <v>3.305200243802188</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802188</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
         <v>3.305200243802188</v>
@@ -4962,25 +4962,25 @@
         <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>44.20705326085427</v>
+        <v>7.439194768028656</v>
       </c>
       <c r="K10" t="n">
-        <v>51.00047617709629</v>
+        <v>14.23261768427069</v>
       </c>
       <c r="L10" t="n">
-        <v>59.69371861623731</v>
+        <v>22.9258601234117</v>
       </c>
       <c r="M10" t="n">
-        <v>100.0735327310763</v>
+        <v>32.09166539295484</v>
       </c>
       <c r="N10" t="n">
-        <v>109.0213956378918</v>
+        <v>72.99351841000691</v>
       </c>
       <c r="O10" t="n">
-        <v>117.2861952859146</v>
+        <v>113.895371427059</v>
       </c>
       <c r="P10" t="n">
-        <v>124.3581591730573</v>
+        <v>154.7972244441111</v>
       </c>
       <c r="Q10" t="n">
         <v>165.2600121901094</v>
@@ -4992,22 +4992,22 @@
         <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>128.5021791757032</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>86.76985286506957</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>45.03752655443588</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>45.03752655443588</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.305200243802188</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="11">
@@ -5017,43 +5017,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1934.02800696283</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.02800696283</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286703</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431968</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
         <v>1775.96950697326</v>
@@ -5062,31 +5062,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117875</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1572.224119716872</v>
       </c>
       <c r="X11" t="n">
-        <v>2360.327577447737</v>
+        <v>1153.081656296183</v>
       </c>
       <c r="Y11" t="n">
-        <v>2360.327577447737</v>
+        <v>744.7955325958366</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030331</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E12" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G12" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
         <v>803.3877032987879</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="13">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.0817647851425</v>
+        <v>926.413848425154</v>
       </c>
       <c r="C13" t="n">
-        <v>616.0817647851425</v>
+        <v>753.852136908379</v>
       </c>
       <c r="D13" t="n">
-        <v>450.2037719866652</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E13" t="n">
-        <v>407.3870791208724</v>
+        <v>584.0941331591162</v>
       </c>
       <c r="F13" t="n">
         <v>407.3870791208724</v>
@@ -5196,55 +5196,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.9123158186961</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>744.992999204955</v>
+        <v>767.3301446246915</v>
       </c>
       <c r="M13" t="n">
-        <v>875.5973915434845</v>
+        <v>897.9345369632209</v>
       </c>
       <c r="N13" t="n">
-        <v>1445.355106505019</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O13" t="n">
-        <v>1982.790237078562</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399887</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1345.652137830033</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041296</v>
+        <v>1118.232467144141</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>489.9727137219388</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="C14" t="n">
-        <v>489.9727137219388</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="D14" t="n">
-        <v>446.7092428694776</v>
+        <v>1464.808959416289</v>
       </c>
       <c r="E14" t="n">
-        <v>446.7092428694776</v>
+        <v>1031.034214574584</v>
       </c>
       <c r="F14" t="n">
-        <v>446.7092428694776</v>
+        <v>603.1667849837922</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>203.6640936632694</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
         <v>1463.013992431967</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T14" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U14" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V14" t="n">
-        <v>2148.556325916849</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W14" t="n">
-        <v>1743.700871327883</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X14" t="n">
-        <v>1324.558407907193</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y14" t="n">
-        <v>916.2722842068466</v>
+        <v>1900.718744241845</v>
       </c>
     </row>
     <row r="15">
@@ -5363,22 +5363,22 @@
         <v>335.7952991210683</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960902</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M15" t="n">
-        <v>803.3877032987876</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O15" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P15" t="n">
         <v>1488.088567599445</v>
       </c>
       <c r="Q15" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R15" t="n">
         <v>1676.651116233592</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>558.4127897239429</v>
+        <v>694.697370523135</v>
       </c>
       <c r="C16" t="n">
-        <v>558.4127897239429</v>
+        <v>522.1356590063599</v>
       </c>
       <c r="D16" t="n">
-        <v>558.4127897239429</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="E16" t="n">
-        <v>388.6547859746801</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F16" t="n">
-        <v>211.9477319364363</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
         <v>47.20655154895474</v>
@@ -5442,16 +5442,16 @@
         <v>564.2504555545215</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.331138940781</v>
+        <v>733.4227107706872</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P16" t="n">
         <v>2105.896438675982</v>
@@ -5481,7 +5481,7 @@
         <v>890.8935156942559</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>886.515989242122</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>475.073981139747</v>
+        <v>1066.133050056591</v>
       </c>
       <c r="C17" t="n">
-        <v>475.073981139747</v>
+        <v>910.9837659653025</v>
       </c>
       <c r="D17" t="n">
         <v>475.073981139747</v>
@@ -5503,25 +5503,25 @@
         <v>475.073981139747</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5536,31 +5536,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S17" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T17" t="n">
-        <v>2108.089956131646</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U17" t="n">
-        <v>1849.01926465316</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V17" t="n">
-        <v>1486.402314586987</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="W17" t="n">
-        <v>1081.54685999802</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="X17" t="n">
-        <v>662.4043965773309</v>
+        <v>1900.718744241845</v>
       </c>
       <c r="Y17" t="n">
-        <v>662.4043965773309</v>
+        <v>1492.432620541499</v>
       </c>
     </row>
     <row r="18">
@@ -5576,19 +5576,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I18" t="n">
         <v>81.42328772043086</v>
@@ -5597,19 +5597,19 @@
         <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960902</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>896.8524940391952</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C19" t="n">
-        <v>724.2907825224202</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D19" t="n">
-        <v>558.4127897239429</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E19" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F19" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J19" t="n">
         <v>106.1122152511379</v>
@@ -5679,46 +5679,46 @@
         <v>202.9123158186961</v>
       </c>
       <c r="L19" t="n">
-        <v>326.7831174369941</v>
+        <v>481.9462364092382</v>
       </c>
       <c r="M19" t="n">
-        <v>718.6204178572111</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N19" t="n">
-        <v>1288.378132818745</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O19" t="n">
-        <v>1825.813263392288</v>
+        <v>2173.320157362631</v>
       </c>
       <c r="P19" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V19" t="n">
-        <v>1695.267182904121</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W19" t="n">
-        <v>1423.240778490413</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X19" t="n">
-        <v>1177.849023823826</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>1088.671112758182</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1344.758510807007</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>1308.351417301975</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
         <v>276.0532770435809</v>
@@ -5758,7 +5758,7 @@
         <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M20" t="n">
         <v>1131.58869045549</v>
@@ -5773,31 +5773,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R20" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T20" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U20" t="n">
-        <v>2319.861207662534</v>
+        <v>2163.40366554822</v>
       </c>
       <c r="V20" t="n">
-        <v>1957.244257596361</v>
+        <v>2163.40366554822</v>
       </c>
       <c r="W20" t="n">
-        <v>1957.244257596361</v>
+        <v>2163.40366554822</v>
       </c>
       <c r="X20" t="n">
-        <v>1957.244257596361</v>
+        <v>1744.26120212753</v>
       </c>
       <c r="Y20" t="n">
-        <v>1548.958133896014</v>
+        <v>1744.26120212753</v>
       </c>
     </row>
     <row r="21">
@@ -5825,7 +5825,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043086</v>
@@ -5834,13 +5834,13 @@
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>732.1113136517137</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C22" t="n">
-        <v>559.5496021349386</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D22" t="n">
         <v>393.6716093364613</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9136055871985</v>
+        <v>223.9136055871986</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J22" t="n">
         <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>202.9123158186961</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092378</v>
+        <v>744.9929992049551</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1456.67298642716</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1994.108117000703</v>
       </c>
       <c r="P22" t="n">
         <v>2274.089213540314</v>
       </c>
       <c r="Q22" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U22" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V22" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W22" t="n">
-        <v>1204.922739004193</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X22" t="n">
-        <v>959.5309843376053</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y22" t="n">
-        <v>732.1113136517137</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1613.733412364591</v>
+        <v>1361.48081990271</v>
       </c>
       <c r="C23" t="n">
-        <v>1175.590939548014</v>
+        <v>1361.48081990271</v>
       </c>
       <c r="D23" t="n">
-        <v>1151.171319818051</v>
+        <v>925.5710350771542</v>
       </c>
       <c r="E23" t="n">
-        <v>717.396574976346</v>
+        <v>491.7962902354494</v>
       </c>
       <c r="F23" t="n">
-        <v>717.396574976346</v>
+        <v>63.92886064465711</v>
       </c>
       <c r="G23" t="n">
-        <v>317.9645208119458</v>
+        <v>63.92886064465711</v>
       </c>
       <c r="H23" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I23" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882627</v>
       </c>
       <c r="J23" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786138</v>
       </c>
       <c r="K23" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L23" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398453</v>
       </c>
       <c r="M23" t="n">
         <v>1173.781693844502</v>
       </c>
       <c r="N23" t="n">
-        <v>1517.560141290067</v>
+        <v>1517.560141290068</v>
       </c>
       <c r="O23" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P23" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q23" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R23" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T23" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U23" t="n">
-        <v>2448.319106549845</v>
+        <v>2150.397340453791</v>
       </c>
       <c r="V23" t="n">
-        <v>2448.319106549845</v>
+        <v>1787.780390387617</v>
       </c>
       <c r="W23" t="n">
-        <v>2448.319106549845</v>
+        <v>1787.780390387617</v>
       </c>
       <c r="X23" t="n">
-        <v>2448.319106549845</v>
+        <v>1787.780390387617</v>
       </c>
       <c r="Y23" t="n">
-        <v>2040.032982849499</v>
+        <v>1787.780390387617</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C24" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D24" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E24" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F24" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G24" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H24" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I24" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J24" t="n">
         <v>181.8514775085927</v>
@@ -6074,22 +6074,22 @@
         <v>348.3116373029836</v>
       </c>
       <c r="L24" t="n">
-        <v>572.1378646061676</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M24" t="n">
-        <v>833.332514667877</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N24" t="n">
         <v>1101.440209907782</v>
       </c>
       <c r="O24" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P24" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q24" t="n">
-        <v>1675.141576563145</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R24" t="n">
         <v>1677.151305564151</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>805.72781145573</v>
+        <v>832.3624612028518</v>
       </c>
       <c r="C25" t="n">
-        <v>633.166099938955</v>
+        <v>659.8007496860768</v>
       </c>
       <c r="D25" t="n">
-        <v>467.2881071404777</v>
+        <v>493.9227568875995</v>
       </c>
       <c r="E25" t="n">
-        <v>390.3829311602567</v>
+        <v>452.5253514375687</v>
       </c>
       <c r="F25" t="n">
-        <v>213.6758771220129</v>
+        <v>275.8182973993249</v>
       </c>
       <c r="G25" t="n">
-        <v>48.96638213099691</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="H25" t="n">
-        <v>48.96638213099691</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I25" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J25" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K25" t="n">
-        <v>571.8138742903014</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L25" t="n">
-        <v>1118.511567973113</v>
+        <v>542.268184522013</v>
       </c>
       <c r="M25" t="n">
-        <v>1253.983950316745</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N25" t="n">
-        <v>1386.235102203909</v>
+        <v>1711.734389091367</v>
       </c>
       <c r="O25" t="n">
-        <v>1737.859313719485</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P25" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q25" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R25" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S25" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T25" t="n">
-        <v>2062.332917060791</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U25" t="n">
-        <v>1783.948013403887</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V25" t="n">
-        <v>1496.992505274317</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W25" t="n">
-        <v>1224.966100860609</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="X25" t="n">
-        <v>1224.966100860609</v>
+        <v>1251.600750607731</v>
       </c>
       <c r="Y25" t="n">
-        <v>997.5464301747172</v>
+        <v>1024.181079921839</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>886.5409091119739</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="C26" t="n">
-        <v>448.3984362953971</v>
+        <v>1346.51834138905</v>
       </c>
       <c r="D26" t="n">
-        <v>448.3984362953971</v>
+        <v>910.6085565634939</v>
       </c>
       <c r="E26" t="n">
-        <v>448.3984362953971</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F26" t="n">
-        <v>448.3984362953971</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="G26" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="H26" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I26" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882624</v>
       </c>
       <c r="J26" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786135</v>
       </c>
       <c r="K26" t="n">
         <v>531.4362430141192</v>
       </c>
       <c r="L26" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M26" t="n">
         <v>1173.781693844502</v>
@@ -6241,37 +6241,37 @@
         <v>1517.560141290067</v>
       </c>
       <c r="O26" t="n">
-        <v>1842.180380803855</v>
+        <v>1842.180380803856</v>
       </c>
       <c r="P26" t="n">
-        <v>2119.236244874199</v>
+        <v>2119.2362448742</v>
       </c>
       <c r="Q26" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R26" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S26" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T26" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U26" t="n">
-        <v>2448.319106549845</v>
+        <v>2191.960375294646</v>
       </c>
       <c r="V26" t="n">
-        <v>2085.702156483672</v>
+        <v>2191.960375294646</v>
       </c>
       <c r="W26" t="n">
-        <v>2085.702156483672</v>
+        <v>2191.960375294646</v>
       </c>
       <c r="X26" t="n">
-        <v>1721.126603297228</v>
+        <v>1772.817911873957</v>
       </c>
       <c r="Y26" t="n">
-        <v>1312.840479596882</v>
+        <v>1772.817911873957</v>
       </c>
     </row>
     <row r="27">
@@ -6284,49 +6284,49 @@
         <v>543.9283289316144</v>
       </c>
       <c r="C27" t="n">
-        <v>437.4718677682566</v>
+        <v>437.4718677682567</v>
       </c>
       <c r="D27" t="n">
         <v>342.3815789148099</v>
       </c>
       <c r="E27" t="n">
-        <v>248.2611642417636</v>
+        <v>248.2611642417637</v>
       </c>
       <c r="F27" t="n">
-        <v>164.8773258579252</v>
+        <v>164.8773258579253</v>
       </c>
       <c r="G27" t="n">
-        <v>80.54401965804902</v>
+        <v>80.54401965804904</v>
       </c>
       <c r="H27" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="I27" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237344</v>
       </c>
       <c r="J27" t="n">
-        <v>181.8514775085927</v>
+        <v>181.8514775085928</v>
       </c>
       <c r="K27" t="n">
-        <v>348.3116373029836</v>
+        <v>348.3116373029837</v>
       </c>
       <c r="L27" t="n">
-        <v>572.1378646061676</v>
+        <v>572.1378646061677</v>
       </c>
       <c r="M27" t="n">
-        <v>833.332514667877</v>
+        <v>833.3325146678773</v>
       </c>
       <c r="N27" t="n">
         <v>1101.440209907782</v>
       </c>
       <c r="O27" t="n">
-        <v>1346.70637196244</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P27" t="n">
-        <v>1543.554090058107</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q27" t="n">
-        <v>1675.141576563145</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R27" t="n">
         <v>1677.151305564151</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1030.64298786597</v>
+        <v>802.4478978281106</v>
       </c>
       <c r="C28" t="n">
-        <v>858.0812763491953</v>
+        <v>629.8861863113356</v>
       </c>
       <c r="D28" t="n">
-        <v>692.203283550718</v>
+        <v>464.0081935128583</v>
       </c>
       <c r="E28" t="n">
-        <v>522.4452798014552</v>
+        <v>294.2501897635955</v>
       </c>
       <c r="F28" t="n">
-        <v>345.7382257632114</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="G28" t="n">
-        <v>181.0287307721954</v>
+        <v>243.1711510495074</v>
       </c>
       <c r="H28" t="n">
-        <v>48.96638213099691</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I28" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099693</v>
       </c>
       <c r="J28" t="n">
-        <v>110.0676242284526</v>
+        <v>110.0676242284527</v>
       </c>
       <c r="K28" t="n">
-        <v>485.2341891256115</v>
+        <v>210.4757345544761</v>
       </c>
       <c r="L28" t="n">
-        <v>1031.931882808423</v>
+        <v>757.1734282372875</v>
       </c>
       <c r="M28" t="n">
-        <v>1167.404265152055</v>
+        <v>1352.129677761833</v>
       </c>
       <c r="N28" t="n">
-        <v>1741.914220196863</v>
+        <v>1926.639632806642</v>
       </c>
       <c r="O28" t="n">
-        <v>1906.052088583818</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P28" t="n">
-        <v>2358.083982536742</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q28" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R28" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S28" t="n">
-        <v>2448.319106549845</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T28" t="n">
-        <v>2206.207265510878</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="U28" t="n">
-        <v>1927.822361853974</v>
+        <v>2026.059854442855</v>
       </c>
       <c r="V28" t="n">
-        <v>1695.273031937437</v>
+        <v>1739.104346313286</v>
       </c>
       <c r="W28" t="n">
-        <v>1695.273031937437</v>
+        <v>1467.077941899577</v>
       </c>
       <c r="X28" t="n">
-        <v>1449.881277270849</v>
+        <v>1221.68618723299</v>
       </c>
       <c r="Y28" t="n">
-        <v>1222.461606584958</v>
+        <v>994.2665165470978</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1430.527938924685</v>
+        <v>914.9762845383659</v>
       </c>
       <c r="C29" t="n">
-        <v>992.3854661081079</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="D29" t="n">
-        <v>717.396574976346</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="E29" t="n">
-        <v>717.396574976346</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F29" t="n">
-        <v>717.396574976346</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="G29" t="n">
-        <v>317.9645208119458</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="H29" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I29" t="n">
-        <v>122.8353788882621</v>
+        <v>122.8353788882622</v>
       </c>
       <c r="J29" t="n">
-        <v>286.3580891786132</v>
+        <v>286.3580891786133</v>
       </c>
       <c r="K29" t="n">
-        <v>531.4362430141188</v>
+        <v>531.4362430141189</v>
       </c>
       <c r="L29" t="n">
-        <v>835.4773641398446</v>
+        <v>835.4773641398448</v>
       </c>
       <c r="M29" t="n">
         <v>1173.781693844501</v>
       </c>
       <c r="N29" t="n">
-        <v>1517.560141290066</v>
+        <v>1517.560141290067</v>
       </c>
       <c r="O29" t="n">
         <v>1842.180380803855</v>
@@ -6490,25 +6490,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S29" t="n">
-        <v>2409.462380959786</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T29" t="n">
-        <v>2198.000343579825</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U29" t="n">
-        <v>2198.000343579825</v>
+        <v>2150.39734045379</v>
       </c>
       <c r="V29" t="n">
-        <v>1835.383393513651</v>
+        <v>2147.260326248368</v>
       </c>
       <c r="W29" t="n">
-        <v>1430.527938924685</v>
+        <v>1742.404871659402</v>
       </c>
       <c r="X29" t="n">
-        <v>1430.527938924685</v>
+        <v>1323.262408238712</v>
       </c>
       <c r="Y29" t="n">
-        <v>1430.527938924685</v>
+        <v>914.9762845383659</v>
       </c>
     </row>
     <row r="30">
@@ -6533,28 +6533,28 @@
         <v>164.8773258579252</v>
       </c>
       <c r="G30" t="n">
-        <v>80.54401965804901</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H30" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I30" t="n">
-        <v>84.4584715023734</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J30" t="n">
-        <v>119.8578922240949</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K30" t="n">
-        <v>286.3180520184858</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L30" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M30" t="n">
-        <v>771.3389293833792</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N30" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O30" t="n">
         <v>1284.712786677942</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>898.5806392247717</v>
+        <v>794.8450667036064</v>
       </c>
       <c r="C31" t="n">
-        <v>726.0189277079967</v>
+        <v>622.2833551868314</v>
       </c>
       <c r="D31" t="n">
-        <v>560.1409349095194</v>
+        <v>622.2833551868314</v>
       </c>
       <c r="E31" t="n">
-        <v>390.3829311602566</v>
+        <v>452.5253514375686</v>
       </c>
       <c r="F31" t="n">
-        <v>213.6758771220128</v>
+        <v>275.8182973993248</v>
       </c>
       <c r="G31" t="n">
-        <v>48.9663821309969</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="H31" t="n">
-        <v>48.9663821309969</v>
+        <v>111.1088024083089</v>
       </c>
       <c r="I31" t="n">
-        <v>48.9663821309969</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="J31" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K31" t="n">
-        <v>571.8138742903013</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L31" t="n">
-        <v>1118.511567973113</v>
+        <v>542.2681845220123</v>
       </c>
       <c r="M31" t="n">
-        <v>1713.467817497658</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N31" t="n">
-        <v>1963.210863452815</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O31" t="n">
-        <v>2085.366207689826</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q31" t="n">
         <v>2430.451674572188</v>
@@ -6657,16 +6657,16 @@
         <v>1783.948013403887</v>
       </c>
       <c r="V31" t="n">
-        <v>1783.948013403887</v>
+        <v>1496.992505274317</v>
       </c>
       <c r="W31" t="n">
-        <v>1511.921608990179</v>
+        <v>1224.966100860609</v>
       </c>
       <c r="X31" t="n">
-        <v>1317.818928629651</v>
+        <v>1214.083356108485</v>
       </c>
       <c r="Y31" t="n">
-        <v>1090.399257943759</v>
+        <v>986.6636854225935</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2043.463651960879</v>
+        <v>918.6509117982573</v>
       </c>
       <c r="C32" t="n">
-        <v>1605.321179144302</v>
+        <v>918.6509117982573</v>
       </c>
       <c r="D32" t="n">
-        <v>1310.040610727894</v>
+        <v>482.7411269727017</v>
       </c>
       <c r="E32" t="n">
-        <v>876.2658658861894</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="F32" t="n">
-        <v>448.3984362953971</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H32" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I32" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882628</v>
       </c>
       <c r="J32" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786139</v>
       </c>
       <c r="K32" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L32" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M32" t="n">
         <v>1173.781693844502</v>
@@ -6721,31 +6721,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q32" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R32" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U32" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V32" t="n">
-        <v>2448.319106549845</v>
+        <v>2046.845430893613</v>
       </c>
       <c r="W32" t="n">
-        <v>2043.463651960879</v>
+        <v>1641.989976304647</v>
       </c>
       <c r="X32" t="n">
-        <v>2043.463651960879</v>
+        <v>1222.847512883957</v>
       </c>
       <c r="Y32" t="n">
-        <v>2043.463651960879</v>
+        <v>918.6509117982573</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C33" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D33" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E33" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F33" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G33" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H33" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I33" t="n">
-        <v>855.6262724880679</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J33" t="n">
-        <v>891.0256932097896</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K33" t="n">
-        <v>1057.48585300418</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L33" t="n">
-        <v>1281.312080307365</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M33" t="n">
-        <v>1542.506730369074</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N33" t="n">
-        <v>1810.614425608979</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O33" t="n">
-        <v>2055.880587663637</v>
+        <v>1346.70637196244</v>
       </c>
       <c r="P33" t="n">
-        <v>2252.728305759304</v>
+        <v>1543.554090058107</v>
       </c>
       <c r="Q33" t="n">
-        <v>2384.315792264341</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R33" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S33" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T33" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U33" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V33" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W33" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X33" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y33" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>982.5953088961337</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C34" t="n">
-        <v>810.0335973793586</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D34" t="n">
-        <v>644.1556045808813</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E34" t="n">
-        <v>474.3976008316186</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F34" t="n">
-        <v>297.6905467933748</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G34" t="n">
-        <v>132.9810518023588</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H34" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I34" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J34" t="n">
         <v>110.0676242284526</v>
@@ -6864,46 +6864,46 @@
         <v>210.475734554476</v>
       </c>
       <c r="L34" t="n">
-        <v>542.2681845220123</v>
+        <v>757.1734282372873</v>
       </c>
       <c r="M34" t="n">
-        <v>1137.224434046558</v>
+        <v>1352.129677761833</v>
       </c>
       <c r="N34" t="n">
-        <v>1711.734389091366</v>
+        <v>1926.639632806641</v>
       </c>
       <c r="O34" t="n">
-        <v>2253.558982554159</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P34" t="n">
-        <v>2358.083982536742</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q34" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R34" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S34" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T34" t="n">
-        <v>2206.207265510878</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U34" t="n">
-        <v>2206.207265510878</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V34" t="n">
-        <v>1919.251757381309</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.2253529676</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X34" t="n">
-        <v>1401.833598301013</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y34" t="n">
-        <v>1174.413927615121</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1591.448832618478</v>
+        <v>1002.63919796802</v>
       </c>
       <c r="C35" t="n">
-        <v>1153.306359801901</v>
+        <v>1002.63919796802</v>
       </c>
       <c r="D35" t="n">
-        <v>717.396574976346</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="E35" t="n">
-        <v>717.396574976346</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="F35" t="n">
-        <v>717.396574976346</v>
+        <v>717.3965749763458</v>
       </c>
       <c r="G35" t="n">
-        <v>317.9645208119458</v>
+        <v>317.9645208119457</v>
       </c>
       <c r="H35" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I35" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J35" t="n">
         <v>286.3580891786135</v>
@@ -6943,7 +6943,7 @@
         <v>531.4362430141192</v>
       </c>
       <c r="L35" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M35" t="n">
         <v>1173.781693844502</v>
@@ -6958,31 +6958,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q35" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R35" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S35" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T35" t="n">
-        <v>2236.857069169884</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="U35" t="n">
-        <v>1977.792028663888</v>
+        <v>2189.254066043849</v>
       </c>
       <c r="V35" t="n">
-        <v>1977.792028663888</v>
+        <v>1826.637115977676</v>
       </c>
       <c r="W35" t="n">
-        <v>1977.792028663888</v>
+        <v>1421.781661388709</v>
       </c>
       <c r="X35" t="n">
-        <v>1977.792028663888</v>
+        <v>1002.63919796802</v>
       </c>
       <c r="Y35" t="n">
-        <v>1977.792028663888</v>
+        <v>1002.63919796802</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H36" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I36" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J36" t="n">
         <v>181.8514775085927</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>704.2104052392294</v>
+        <v>704.2104052392299</v>
       </c>
       <c r="C37" t="n">
-        <v>704.2104052392294</v>
+        <v>531.6486937224548</v>
       </c>
       <c r="D37" t="n">
-        <v>538.3324124407521</v>
+        <v>395.4314399185034</v>
       </c>
       <c r="E37" t="n">
-        <v>452.5253514375686</v>
+        <v>225.6734361692407</v>
       </c>
       <c r="F37" t="n">
-        <v>275.8182973993248</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G37" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H37" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I37" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J37" t="n">
         <v>110.0676242284526</v>
@@ -7101,46 +7101,46 @@
         <v>210.475734554476</v>
       </c>
       <c r="L37" t="n">
-        <v>542.2681845220123</v>
+        <v>757.1734282372873</v>
       </c>
       <c r="M37" t="n">
-        <v>1137.224434046558</v>
+        <v>1352.129677761833</v>
       </c>
       <c r="N37" t="n">
-        <v>1711.734389091366</v>
+        <v>1926.639632806641</v>
       </c>
       <c r="O37" t="n">
-        <v>2253.558982554159</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P37" t="n">
-        <v>2358.083982536742</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q37" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R37" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S37" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="T37" t="n">
-        <v>2206.207265510878</v>
+        <v>2206.207265510879</v>
       </c>
       <c r="U37" t="n">
         <v>1927.822361853974</v>
       </c>
       <c r="V37" t="n">
-        <v>1640.866853724404</v>
+        <v>1640.866853724405</v>
       </c>
       <c r="W37" t="n">
         <v>1368.840449310696</v>
       </c>
       <c r="X37" t="n">
-        <v>1123.448694644108</v>
+        <v>1123.448694644109</v>
       </c>
       <c r="Y37" t="n">
-        <v>896.0290239582166</v>
+        <v>896.0290239582171</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>448.3984362953971</v>
+        <v>1206.888954897368</v>
       </c>
       <c r="C38" t="n">
-        <v>448.3984362953971</v>
+        <v>768.7464820807913</v>
       </c>
       <c r="D38" t="n">
-        <v>448.3984362953971</v>
+        <v>768.7464820807913</v>
       </c>
       <c r="E38" t="n">
         <v>448.3984362953971</v>
@@ -7171,19 +7171,19 @@
         <v>48.96638213099691</v>
       </c>
       <c r="I38" t="n">
-        <v>122.8353788882622</v>
+        <v>122.8353788882626</v>
       </c>
       <c r="J38" t="n">
-        <v>286.3580891786132</v>
+        <v>286.3580891786137</v>
       </c>
       <c r="K38" t="n">
-        <v>531.436243014119</v>
+        <v>531.4362430141193</v>
       </c>
       <c r="L38" t="n">
-        <v>835.4773641398448</v>
+        <v>835.4773641398451</v>
       </c>
       <c r="M38" t="n">
-        <v>1173.781693844501</v>
+        <v>1173.781693844502</v>
       </c>
       <c r="N38" t="n">
         <v>1517.560141290067</v>
@@ -7213,13 +7213,13 @@
         <v>1615.175078597714</v>
       </c>
       <c r="W38" t="n">
-        <v>1210.319624008748</v>
+        <v>1615.175078597714</v>
       </c>
       <c r="X38" t="n">
-        <v>1210.319624008748</v>
+        <v>1615.175078597714</v>
       </c>
       <c r="Y38" t="n">
-        <v>802.0335003084011</v>
+        <v>1206.888954897368</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1315.096129917309</v>
+        <v>543.9283289316144</v>
       </c>
       <c r="C39" t="n">
-        <v>1208.639668753951</v>
+        <v>437.4718677682566</v>
       </c>
       <c r="D39" t="n">
-        <v>1113.549379900504</v>
+        <v>342.3815789148099</v>
       </c>
       <c r="E39" t="n">
-        <v>1019.428965227458</v>
+        <v>248.2611642417636</v>
       </c>
       <c r="F39" t="n">
-        <v>936.0451268436198</v>
+        <v>164.8773258579252</v>
       </c>
       <c r="G39" t="n">
-        <v>851.7118206437435</v>
+        <v>80.54401965804902</v>
       </c>
       <c r="H39" t="n">
-        <v>820.1341831166914</v>
+        <v>48.96638213099691</v>
       </c>
       <c r="I39" t="n">
-        <v>855.6262724880679</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J39" t="n">
-        <v>953.0192784942872</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K39" t="n">
-        <v>1057.48585300418</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L39" t="n">
-        <v>1281.312080307365</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M39" t="n">
-        <v>1542.506730369074</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N39" t="n">
-        <v>1810.614425608979</v>
+        <v>1039.446624623284</v>
       </c>
       <c r="O39" t="n">
-        <v>2055.880587663637</v>
+        <v>1284.712786677942</v>
       </c>
       <c r="P39" t="n">
-        <v>2252.728305759304</v>
+        <v>1481.560504773609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2384.315792264341</v>
+        <v>1613.147991278647</v>
       </c>
       <c r="R39" t="n">
-        <v>2448.319106549845</v>
+        <v>1677.151305564151</v>
       </c>
       <c r="S39" t="n">
-        <v>2404.400086832595</v>
+        <v>1633.2322858469</v>
       </c>
       <c r="T39" t="n">
-        <v>2278.460868898682</v>
+        <v>1507.293067912987</v>
       </c>
       <c r="U39" t="n">
-        <v>2102.193518183778</v>
+        <v>1331.025717198083</v>
       </c>
       <c r="V39" t="n">
-        <v>1903.076000245777</v>
+        <v>1131.908199260083</v>
       </c>
       <c r="W39" t="n">
-        <v>1717.753245978971</v>
+        <v>946.5854449932767</v>
       </c>
       <c r="X39" t="n">
-        <v>1562.885810217851</v>
+        <v>791.7180092321568</v>
       </c>
       <c r="Y39" t="n">
-        <v>1436.400030997072</v>
+        <v>665.2322300113775</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>619.306510472824</v>
+        <v>704.2104052392294</v>
       </c>
       <c r="C40" t="n">
-        <v>446.744798956049</v>
+        <v>704.2104052392294</v>
       </c>
       <c r="D40" t="n">
-        <v>280.8668061575717</v>
+        <v>622.2833551868314</v>
       </c>
       <c r="E40" t="n">
-        <v>111.1088024083089</v>
+        <v>452.5253514375686</v>
       </c>
       <c r="F40" t="n">
-        <v>111.1088024083089</v>
+        <v>275.8182973993248</v>
       </c>
       <c r="G40" t="n">
         <v>111.1088024083089</v>
@@ -7332,25 +7332,25 @@
         <v>48.96638213099691</v>
       </c>
       <c r="J40" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K40" t="n">
-        <v>571.8138742903014</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L40" t="n">
-        <v>793.7446588834613</v>
+        <v>542.2681845220123</v>
       </c>
       <c r="M40" t="n">
-        <v>1388.700908408007</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N40" t="n">
-        <v>1963.210863452815</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O40" t="n">
-        <v>2085.366207689827</v>
+        <v>2253.558982554159</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536742</v>
       </c>
       <c r="Q40" t="n">
         <v>2430.451674572188</v>
@@ -7359,25 +7359,25 @@
         <v>2448.319106549845</v>
       </c>
       <c r="S40" t="n">
-        <v>2304.444758099758</v>
+        <v>2448.319106549845</v>
       </c>
       <c r="T40" t="n">
-        <v>2062.332917060791</v>
+        <v>2206.207265510878</v>
       </c>
       <c r="U40" t="n">
-        <v>1842.918467087568</v>
+        <v>1927.822361853974</v>
       </c>
       <c r="V40" t="n">
-        <v>1555.962958957999</v>
+        <v>1640.866853724404</v>
       </c>
       <c r="W40" t="n">
-        <v>1283.93655454429</v>
+        <v>1368.840449310696</v>
       </c>
       <c r="X40" t="n">
-        <v>1038.544799877703</v>
+        <v>1123.448694644108</v>
       </c>
       <c r="Y40" t="n">
-        <v>811.1251291918111</v>
+        <v>896.0290239582166</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1784.660814205626</v>
+        <v>1350.886069363921</v>
       </c>
       <c r="C41" t="n">
-        <v>1346.51834138905</v>
+        <v>912.7435965473446</v>
       </c>
       <c r="D41" t="n">
-        <v>910.6085565634939</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="E41" t="n">
         <v>476.8338117217892</v>
       </c>
       <c r="F41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H41" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I41" t="n">
-        <v>122.8353788882626</v>
+        <v>122.8353788882628</v>
       </c>
       <c r="J41" t="n">
-        <v>286.3580891786136</v>
+        <v>286.3580891786139</v>
       </c>
       <c r="K41" t="n">
-        <v>531.4362430141192</v>
+        <v>531.4362430141194</v>
       </c>
       <c r="L41" t="n">
-        <v>835.477364139845</v>
+        <v>835.4773641398452</v>
       </c>
       <c r="M41" t="n">
         <v>1173.781693844502</v>
@@ -7432,31 +7432,31 @@
         <v>2119.236244874199</v>
       </c>
       <c r="Q41" t="n">
-        <v>2327.293660516457</v>
+        <v>2327.293660516458</v>
       </c>
       <c r="R41" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S41" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="T41" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="U41" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="V41" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="W41" t="n">
-        <v>2448.319106549845</v>
+        <v>2409.462380959787</v>
       </c>
       <c r="X41" t="n">
-        <v>2448.319106549845</v>
+        <v>1990.319917539098</v>
       </c>
       <c r="Y41" t="n">
-        <v>2210.960384690534</v>
+        <v>1582.033793838751</v>
       </c>
     </row>
     <row r="42">
@@ -7484,10 +7484,10 @@
         <v>80.54401965804902</v>
       </c>
       <c r="H42" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I42" t="n">
-        <v>84.45847150237341</v>
+        <v>84.45847150237343</v>
       </c>
       <c r="J42" t="n">
         <v>181.8514775085927</v>
@@ -7499,7 +7499,7 @@
         <v>572.1378646061676</v>
       </c>
       <c r="M42" t="n">
-        <v>833.332514667877</v>
+        <v>771.3389293833792</v>
       </c>
       <c r="N42" t="n">
         <v>1039.446624623284</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1092.785408143282</v>
+        <v>858.0812763491953</v>
       </c>
       <c r="C43" t="n">
-        <v>920.2236966265071</v>
+        <v>858.0812763491953</v>
       </c>
       <c r="D43" t="n">
-        <v>754.3457038280299</v>
+        <v>692.203283550718</v>
       </c>
       <c r="E43" t="n">
-        <v>584.5877000787672</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F43" t="n">
-        <v>407.8806460405234</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G43" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H43" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I43" t="n">
-        <v>48.96638213099691</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="J43" t="n">
-        <v>196.6473093931425</v>
+        <v>110.0676242284526</v>
       </c>
       <c r="K43" t="n">
-        <v>571.8138742903014</v>
+        <v>210.475734554476</v>
       </c>
       <c r="L43" t="n">
-        <v>1118.511567973113</v>
+        <v>542.2681845220128</v>
       </c>
       <c r="M43" t="n">
-        <v>1253.983950316745</v>
+        <v>1137.224434046558</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.235102203909</v>
+        <v>1711.734389091366</v>
       </c>
       <c r="O43" t="n">
-        <v>1737.859313719485</v>
+        <v>2253.55898255416</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.89120767241</v>
+        <v>2358.083982536743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2430.451674572188</v>
+        <v>2430.451674572189</v>
       </c>
       <c r="R43" t="n">
-        <v>2448.319106549845</v>
+        <v>2448.319106549846</v>
       </c>
       <c r="S43" t="n">
-        <v>2304.444758099758</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T43" t="n">
-        <v>2062.332917060791</v>
+        <v>2062.332917060792</v>
       </c>
       <c r="U43" t="n">
-        <v>2062.332917060791</v>
+        <v>1783.948013403888</v>
       </c>
       <c r="V43" t="n">
-        <v>1775.377408931222</v>
+        <v>1496.992505274318</v>
       </c>
       <c r="W43" t="n">
-        <v>1503.351004517513</v>
+        <v>1224.96610086061</v>
       </c>
       <c r="X43" t="n">
-        <v>1503.351004517513</v>
+        <v>1049.899895068182</v>
       </c>
       <c r="Y43" t="n">
-        <v>1284.604026862269</v>
+        <v>1049.899895068182</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1382.92493579865</v>
+        <v>914.9762845383659</v>
       </c>
       <c r="C44" t="n">
-        <v>1382.92493579865</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="D44" t="n">
-        <v>1382.92493579865</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="E44" t="n">
-        <v>1145.264004567138</v>
+        <v>476.8338117217892</v>
       </c>
       <c r="F44" t="n">
-        <v>717.3965749763458</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="G44" t="n">
-        <v>317.9645208119457</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="H44" t="n">
         <v>48.96638213099692</v>
@@ -7678,22 +7678,22 @@
         <v>2409.462380959787</v>
       </c>
       <c r="T44" t="n">
-        <v>2409.462380959787</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="U44" t="n">
-        <v>2150.397340453791</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="V44" t="n">
-        <v>1787.780390387617</v>
+        <v>2198.000343579826</v>
       </c>
       <c r="W44" t="n">
-        <v>1382.92493579865</v>
+        <v>1793.144888990859</v>
       </c>
       <c r="X44" t="n">
-        <v>1382.92493579865</v>
+        <v>1749.561978723621</v>
       </c>
       <c r="Y44" t="n">
-        <v>1382.92493579865</v>
+        <v>1341.275855023274</v>
       </c>
     </row>
     <row r="45">
@@ -7727,19 +7727,19 @@
         <v>84.45847150237343</v>
       </c>
       <c r="J45" t="n">
-        <v>119.8578922240948</v>
+        <v>181.8514775085927</v>
       </c>
       <c r="K45" t="n">
-        <v>286.3180520184857</v>
+        <v>348.3116373029836</v>
       </c>
       <c r="L45" t="n">
-        <v>510.1442793216697</v>
+        <v>572.1378646061676</v>
       </c>
       <c r="M45" t="n">
-        <v>771.3389293833792</v>
+        <v>833.332514667877</v>
       </c>
       <c r="N45" t="n">
-        <v>1039.446624623284</v>
+        <v>1101.440209907782</v>
       </c>
       <c r="O45" t="n">
         <v>1284.712786677942</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.785408143282</v>
+        <v>864.764995067493</v>
       </c>
       <c r="C46" t="n">
-        <v>920.2236966265071</v>
+        <v>692.203283550718</v>
       </c>
       <c r="D46" t="n">
-        <v>754.3457038280299</v>
+        <v>692.203283550718</v>
       </c>
       <c r="E46" t="n">
-        <v>584.5877000787672</v>
+        <v>522.4452798014552</v>
       </c>
       <c r="F46" t="n">
-        <v>407.8806460405234</v>
+        <v>345.7382257632114</v>
       </c>
       <c r="G46" t="n">
-        <v>243.1711510495074</v>
+        <v>181.0287307721954</v>
       </c>
       <c r="H46" t="n">
-        <v>111.1088024083089</v>
+        <v>48.96638213099692</v>
       </c>
       <c r="I46" t="n">
         <v>48.96638213099692</v>
@@ -7812,16 +7812,16 @@
         <v>210.475734554476</v>
       </c>
       <c r="L46" t="n">
-        <v>542.2681845220128</v>
+        <v>654.2451577325839</v>
       </c>
       <c r="M46" t="n">
-        <v>1137.224434046558</v>
+        <v>789.7175400762163</v>
       </c>
       <c r="N46" t="n">
-        <v>1711.734389091366</v>
+        <v>1364.227495121025</v>
       </c>
       <c r="O46" t="n">
-        <v>2253.55898255416</v>
+        <v>1906.052088583818</v>
       </c>
       <c r="P46" t="n">
         <v>2358.083982536743</v>
@@ -7833,25 +7833,25 @@
         <v>2448.319106549846</v>
       </c>
       <c r="S46" t="n">
-        <v>2448.319106549846</v>
+        <v>2304.444758099759</v>
       </c>
       <c r="T46" t="n">
-        <v>2367.362597729039</v>
+        <v>2088.376951682237</v>
       </c>
       <c r="U46" t="n">
-        <v>2088.977694072135</v>
+        <v>2088.376951682237</v>
       </c>
       <c r="V46" t="n">
-        <v>1802.022185942565</v>
+        <v>1801.421443552668</v>
       </c>
       <c r="W46" t="n">
-        <v>1529.995781528857</v>
+        <v>1529.395039138959</v>
       </c>
       <c r="X46" t="n">
-        <v>1284.604026862269</v>
+        <v>1284.003284472372</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.604026862269</v>
+        <v>1056.58361378648</v>
       </c>
     </row>
   </sheetData>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>21.75440028723776</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>37.13925100285415</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8619,19 +8619,19 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52930186393523</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>32.27675768710764</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>32.96672057477707</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>34.17160518172662</v>
       </c>
       <c r="Q10" t="n">
-        <v>36.36928463638102</v>
+        <v>5.622754059559071</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>80.00897722411321</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8865,7 +8865,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>22.56277315124953</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9090,19 +9090,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>45.75904403825018</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9327,10 +9327,10 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>156.730423204287</v>
       </c>
       <c r="M19" t="n">
-        <v>263.871624324937</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -9339,7 +9339,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -9564,19 +9564,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>458.1582657371571</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>181.0222629918462</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>205.358220255239</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>231.7867346248127</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>42.40659005044677</v>
+        <v>206.8323287984917</v>
       </c>
       <c r="P28" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>205.3582202552384</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>118.6786808767604</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10512,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>205.3582202552384</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645587</v>
@@ -10521,7 +10521,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512944</v>
+        <v>206.8323287984917</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>205.3582202552384</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645587</v>
@@ -10758,7 +10758,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>206.8323287984917</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>94.38684108920154</v>
+        <v>205.3582202552384</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645587</v>
@@ -10995,13 +10995,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>205.3582202552388</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>231.7867346248127</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11460,10 +11460,10 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>205.3582202552388</v>
+        <v>318.4662740032906</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
@@ -11472,7 +11472,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23257,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>79.15519915458208</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>276.1169481060848</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>125.6718977746353</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>174.6082702826748</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>388.7198508333633</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>112.1313692483571</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735098</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
         <v>256.4799845637012</v>
@@ -23557,13 +23557,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>85.88998780022017</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144772</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>62.46433369811442</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8117227914202</v>
       </c>
     </row>
     <row r="17">
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>236.5794634968507</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>280.1632568380354</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>114.8692533779055</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.859342024046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>219.8789479219422</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -23983,7 +23983,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24025,19 +24025,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>101.5870178705294</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>114.8692533779055</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>67.95109395691597</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>407.3752634446359</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>251.4953035656157</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
@@ -24274,7 +24274,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>91.92429949135135</v>
+        <v>127.0769923162397</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I25" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,19 +24445,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H26" t="n">
         <v>266.3081572941393</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>209.3474170061614</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4743901009363</v>
+        <v>41.14740449244664</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>54.02124113190348</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>124.3717351709141</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.6907226285777</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>53.86211643090212</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,19 +24685,19 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>159.3116847568555</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4743901009363</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>355.885136502144</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>130.7417251547865</v>
       </c>
       <c r="I31" t="n">
-        <v>61.52099607453886</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>50.77618356299897</v>
+        <v>232.1639198153192</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24919,19 +24919,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>139.2229242450563</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H32" t="n">
         <v>266.3081572941393</v>
@@ -24967,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>209.3474170061614</v>
@@ -24976,16 +24976,16 @@
         <v>256.4743901009363</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>404.2032624633431</v>
+        <v>103.0486273885002</v>
       </c>
     </row>
     <row r="33">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>29.36413160458065</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H34" t="n">
-        <v>47.56720218013825</v>
+        <v>130.7417251547865</v>
       </c>
       <c r="I34" t="n">
         <v>61.52099607453886</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>39.55681069510285</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>149.1604902155427</v>
       </c>
       <c r="E35" t="n">
         <v>429.4369973932878</v>
@@ -25207,19 +25207,19 @@
         <v>38.46815833415827</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3474170061614</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>404.2032624633431</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>29.36413160458065</v>
       </c>
       <c r="E37" t="n">
-        <v>83.11143331861841</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.0624000411058</v>
       </c>
       <c r="H37" t="n">
         <v>130.7417251547865</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25390,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>71.93786140718476</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>112.2924320657475</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
@@ -25453,7 +25453,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>83.11143331861847</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0624000411058</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>130.7417251547865</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4356049655858</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>58.38074914684464</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>193.2003275499772</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.46815833415827</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>209.3474170061614</v>
@@ -25693,10 +25693,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>169.2181278226247</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6010546203353</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>69.62229338541835</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.585966100341381</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -25864,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>194.1526754740907</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4377336227562</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.3081572941393</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.3474170061614</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4743901009363</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>371.8039576219163</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>61.52099607453886</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,13 +26073,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.4356049655858</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>159.5437788959793</v>
+        <v>25.78359427523071</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6010546203353</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>340286.2981901356</v>
+        <v>340286.2981901355</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>340286.2981901356</v>
+        <v>340286.2981901355</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>350274.0236196368</v>
+        <v>350274.0236196369</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>350274.0236196368</v>
+        <v>350274.0236196369</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>350274.0236196368</v>
+        <v>350274.0236196369</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>350274.0236196368</v>
+        <v>350274.0236196369</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>350274.0236196368</v>
+        <v>350274.0236196369</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>350274.0236196369</v>
+        <v>350274.0236196368</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>350274.0236196369</v>
+        <v>350274.0236196368</v>
       </c>
     </row>
   </sheetData>
@@ -26322,7 +26322,7 @@
         <v>388706.8069205462</v>
       </c>
       <c r="E2" t="n">
-        <v>228081.4783861851</v>
+        <v>228081.4783861852</v>
       </c>
       <c r="F2" t="n">
         <v>228081.4783861852</v>
@@ -26334,13 +26334,13 @@
         <v>228081.4783861852</v>
       </c>
       <c r="I2" t="n">
-        <v>234682.5783707574</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="J2" t="n">
-        <v>234682.5783707574</v>
+        <v>234682.5783707576</v>
       </c>
       <c r="K2" t="n">
-        <v>234682.5783707574</v>
+        <v>234682.5783707575</v>
       </c>
       <c r="L2" t="n">
         <v>234682.5783707575</v>
@@ -26352,10 +26352,10 @@
         <v>234682.5783707575</v>
       </c>
       <c r="O2" t="n">
-        <v>234682.5783707575</v>
+        <v>234682.5783707576</v>
       </c>
       <c r="P2" t="n">
-        <v>234682.5783707575</v>
+        <v>234682.5783707576</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18943.98047935648</v>
+        <v>18943.98047935651</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>10456.45543630175</v>
+        <v>10456.45543630177</v>
       </c>
       <c r="M3" t="n">
-        <v>136754.9043831155</v>
+        <v>136754.9043831154</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
         <v>294577.6699288963</v>
       </c>
       <c r="E4" t="n">
-        <v>18294.04639895363</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="F4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="G4" t="n">
         <v>18294.04639895362</v>
       </c>
       <c r="H4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="I4" t="n">
-        <v>18962.63703627206</v>
+        <v>18962.63703627207</v>
       </c>
       <c r="J4" t="n">
-        <v>18962.63703627206</v>
+        <v>18962.63703627207</v>
       </c>
       <c r="K4" t="n">
         <v>18962.63703627206</v>
       </c>
       <c r="L4" t="n">
-        <v>18962.63703627206</v>
+        <v>18962.63703627207</v>
       </c>
       <c r="M4" t="n">
-        <v>18962.63703627206</v>
+        <v>18962.63703627207</v>
       </c>
       <c r="N4" t="n">
         <v>18962.63703627206</v>
       </c>
       <c r="O4" t="n">
+        <v>18962.63703627207</v>
+      </c>
+      <c r="P4" t="n">
         <v>18962.63703627206</v>
-      </c>
-      <c r="P4" t="n">
-        <v>18962.63703627207</v>
       </c>
     </row>
     <row r="5">
@@ -26478,25 +26478,25 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="F5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="I5" t="n">
+        <v>47767.76961397017</v>
+      </c>
+      <c r="J5" t="n">
+        <v>47767.76961397017</v>
+      </c>
+      <c r="K5" t="n">
         <v>47767.76961397016</v>
-      </c>
-      <c r="J5" t="n">
-        <v>47767.76961397016</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47767.76961397015</v>
       </c>
       <c r="L5" t="n">
         <v>47767.76961397016</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326613</v>
+        <v>47063.6358157645</v>
       </c>
       <c r="C6" t="n">
-        <v>47095.54253326613</v>
+        <v>47063.63581576444</v>
       </c>
       <c r="D6" t="n">
-        <v>16391.67263668399</v>
+        <v>16391.67263668394</v>
       </c>
       <c r="E6" t="n">
-        <v>-348749.1587783881</v>
+        <v>-349303.03922161</v>
       </c>
       <c r="F6" t="n">
-        <v>163736.3507775937</v>
+        <v>163182.4703343718</v>
       </c>
       <c r="G6" t="n">
-        <v>163736.3507775937</v>
+        <v>163182.4703343718</v>
       </c>
       <c r="H6" t="n">
-        <v>163736.3507775937</v>
+        <v>163182.4703343718</v>
       </c>
       <c r="I6" t="n">
-        <v>149008.1912411587</v>
+        <v>148477.0732116767</v>
       </c>
       <c r="J6" t="n">
-        <v>167952.1717205152</v>
+        <v>167421.0536910333</v>
       </c>
       <c r="K6" t="n">
-        <v>167952.1717205152</v>
+        <v>167421.0536910332</v>
       </c>
       <c r="L6" t="n">
-        <v>157495.7162842135</v>
+        <v>156964.5982547315</v>
       </c>
       <c r="M6" t="n">
-        <v>31197.26733739977</v>
+        <v>30666.14930791783</v>
       </c>
       <c r="N6" t="n">
-        <v>167952.1717205153</v>
+        <v>167421.0536910332</v>
       </c>
       <c r="O6" t="n">
-        <v>167952.1717205153</v>
+        <v>167421.0536910333</v>
       </c>
       <c r="P6" t="n">
-        <v>167952.1717205153</v>
+        <v>167421.0536910334</v>
       </c>
     </row>
   </sheetData>
@@ -26752,31 +26752,31 @@
         <v>466.7019280932213</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="I3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="J3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528676</v>
       </c>
       <c r="K3" t="n">
-        <v>484.0972107528673</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="L3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="M3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="N3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="O3" t="n">
-        <v>484.0972107528674</v>
+        <v>484.0972107528675</v>
       </c>
       <c r="P3" t="n">
         <v>484.0972107528675</v>
@@ -26798,37 +26798,37 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="F4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="I4" t="n">
+        <v>612.0797766374616</v>
+      </c>
+      <c r="J4" t="n">
+        <v>612.0797766374616</v>
+      </c>
+      <c r="K4" t="n">
         <v>612.0797766374614</v>
       </c>
-      <c r="J4" t="n">
-        <v>612.0797766374614</v>
-      </c>
-      <c r="K4" t="n">
-        <v>612.0797766374612</v>
-      </c>
       <c r="L4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="M4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="N4" t="n">
         <v>612.0797766374614</v>
       </c>
       <c r="O4" t="n">
-        <v>612.0797766374614</v>
+        <v>612.0797766374615</v>
       </c>
       <c r="P4" t="n">
         <v>612.0797766374615</v>
@@ -27020,7 +27020,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>21.9978822755271</v>
+        <v>21.99788227552722</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>41.31500304752735</v>
+        <v>41.31500304752746</v>
       </c>
       <c r="M4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>41.31500304752735</v>
       </c>
       <c r="M4" t="n">
-        <v>548.766891314407</v>
+        <v>548.7668913144068</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27934,16 +27934,16 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>64.07689350419679</v>
       </c>
       <c r="D9" t="n">
-        <v>94.13938596491228</v>
+        <v>52.82438291738493</v>
       </c>
       <c r="E9" t="n">
-        <v>93.17921052631581</v>
+        <v>51.86420747878847</v>
       </c>
       <c r="F9" t="n">
-        <v>82.55</v>
+        <v>46.15974531573791</v>
       </c>
       <c r="G9" t="n">
         <v>84.46078876789484</v>
@@ -27988,19 +27988,19 @@
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>138.1782919728362</v>
+        <v>174.5685466570983</v>
       </c>
       <c r="V9" t="n">
-        <v>155.8113397110933</v>
+        <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>142.1545236766106</v>
+        <v>183.4695267241379</v>
       </c>
       <c r="X9" t="n">
         <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
-        <v>83.90591838104407</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="10">
@@ -28013,19 +28013,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>152.993796851624</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8762992535017</v>
+        <v>122.5612962059744</v>
       </c>
       <c r="H10" t="n">
         <v>137.9780290613614</v>
@@ -28064,19 +28064,19 @@
         <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
-        <v>225.3259944406498</v>
+        <v>243.1682919906331</v>
       </c>
       <c r="U10" t="n">
-        <v>234.3304460753022</v>
+        <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>242.7709500007465</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -32083,7 +32083,7 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646685</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108056</v>
@@ -32101,7 +32101,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233626</v>
+        <v>62.32672164233554</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183765</v>
@@ -32229,13 +32229,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H17" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -32244,7 +32244,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994722</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H18" t="n">
         <v>9.695072128879938</v>
@@ -32314,22 +32314,22 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.9630089646685</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
         <v>191.6912126917233</v>
@@ -32338,7 +32338,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233625</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183765</v>
@@ -32384,19 +32384,19 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238415</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495699</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624559</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116992</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32417,13 +32417,13 @@
         <v>70.4719911420764</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195199</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S19" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U19" t="n">
         <v>0.0459051076813005</v>
@@ -32466,13 +32466,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
@@ -32481,10 +32481,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
@@ -32499,10 +32499,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S21" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T21" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,25 +32621,25 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M22" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N22" t="n">
         <v>128.7867795998885</v>
@@ -32651,19 +32651,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S22" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,31 +32703,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H23" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I23" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N23" t="n">
         <v>347.2509570157227</v>
       </c>
       <c r="O23" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q23" t="n">
         <v>210.1590056992511</v>
@@ -32736,13 +32736,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S23" t="n">
-        <v>44.34719674384309</v>
+        <v>44.3471967438431</v>
       </c>
       <c r="T23" t="n">
-        <v>8.519137849530358</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H24" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I24" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K24" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L24" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N24" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350075</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P24" t="n">
         <v>198.8360788845127</v>
@@ -32812,16 +32812,16 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R24" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S24" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T24" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.872962183324843</v>
       </c>
       <c r="H25" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742701</v>
       </c>
       <c r="I25" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J25" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K25" t="n">
         <v>101.4223336626499</v>
@@ -32888,19 +32888,19 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R25" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S25" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T25" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,31 +32940,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H26" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I26" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879369</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157227</v>
+        <v>347.2509570157228</v>
       </c>
       <c r="O26" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P26" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q26" t="n">
         <v>210.1590056992511</v>
@@ -32973,13 +32973,13 @@
         <v>122.2479252862505</v>
       </c>
       <c r="S26" t="n">
-        <v>44.34719674384309</v>
+        <v>44.34719674384311</v>
       </c>
       <c r="T26" t="n">
-        <v>8.519137849530358</v>
+        <v>8.519137849530361</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.041265698600507</v>
+        <v>1.041265698600508</v>
       </c>
       <c r="H27" t="n">
         <v>10.05643451016806</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L27" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N27" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350075</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P27" t="n">
         <v>198.8360788845127</v>
@@ -33049,16 +33049,16 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R27" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959996</v>
       </c>
       <c r="S27" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T27" t="n">
-        <v>4.197031478130991</v>
+        <v>4.197031478130992</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.06850432227634921</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248431</v>
       </c>
       <c r="H28" t="n">
-        <v>7.761427411742699</v>
+        <v>7.761427411742702</v>
       </c>
       <c r="I28" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106638</v>
+        <v>61.7184263610664</v>
       </c>
       <c r="K28" t="n">
         <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
-        <v>129.7856686008589</v>
+        <v>129.785668600859</v>
       </c>
       <c r="M28" t="n">
         <v>136.8407902460933</v>
@@ -33125,19 +33125,19 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
-        <v>73.09867882368297</v>
+        <v>73.098678823683</v>
       </c>
       <c r="R28" t="n">
-        <v>39.25155417022428</v>
+        <v>39.2515541702243</v>
       </c>
       <c r="S28" t="n">
-        <v>15.21335004939748</v>
+        <v>15.21335004939749</v>
       </c>
       <c r="T28" t="n">
-        <v>3.7299293287516</v>
+        <v>3.729929328751601</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044604</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,31 +33177,31 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H29" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I29" t="n">
-        <v>75.02776971879365</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M29" t="n">
-        <v>341.7215451562187</v>
+        <v>341.7215451562188</v>
       </c>
       <c r="N29" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157227</v>
       </c>
       <c r="O29" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518623</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q29" t="n">
         <v>210.1590056992511</v>
@@ -33213,10 +33213,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T29" t="n">
-        <v>8.519137849530356</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,10 +33259,10 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>35.75699062800152</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K30" t="n">
         <v>168.1415755498898</v>
@@ -33274,10 +33274,10 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N30" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350075</v>
+        <v>185.1238149193532</v>
       </c>
       <c r="P30" t="n">
         <v>198.8360788845127</v>
@@ -33286,16 +33286,16 @@
         <v>132.9166530353911</v>
       </c>
       <c r="R30" t="n">
-        <v>64.64981240959993</v>
+        <v>64.64981240959995</v>
       </c>
       <c r="S30" t="n">
         <v>19.34105365602257</v>
       </c>
       <c r="T30" t="n">
-        <v>4.19703147813099</v>
+        <v>4.197031478130991</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8729621833248427</v>
+        <v>0.8729621833248429</v>
       </c>
       <c r="H31" t="n">
-        <v>7.761427411742698</v>
+        <v>7.7614274117427</v>
       </c>
       <c r="I31" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J31" t="n">
-        <v>61.71842636106637</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K31" t="n">
         <v>101.4223336626499</v>
@@ -33353,19 +33353,19 @@
         <v>136.8407902460933</v>
       </c>
       <c r="N31" t="n">
-        <v>133.5870221082462</v>
+        <v>133.5870221082463</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030423</v>
+        <v>123.3892366030424</v>
       </c>
       <c r="P31" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>73.09867882368296</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R31" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022429</v>
       </c>
       <c r="S31" t="n">
         <v>15.21335004939748</v>
@@ -33374,7 +33374,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044603</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,19 +33414,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H32" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I32" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L32" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M32" t="n">
         <v>341.7215451562188</v>
@@ -33435,10 +33435,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O32" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q32" t="n">
         <v>210.1590056992511</v>
@@ -33450,10 +33450,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T32" t="n">
-        <v>8.519137849530358</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,10 +33496,10 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J33" t="n">
-        <v>35.75699062800163</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K33" t="n">
         <v>168.1415755498898</v>
@@ -33511,16 +33511,16 @@
         <v>263.8329798603127</v>
       </c>
       <c r="N33" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O33" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P33" t="n">
         <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353911</v>
+        <v>70.29686991973676</v>
       </c>
       <c r="R33" t="n">
         <v>64.64981240959995</v>
@@ -33532,7 +33532,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248429</v>
       </c>
       <c r="H34" t="n">
-        <v>7.761427411742699</v>
+        <v>7.7614274117427</v>
       </c>
       <c r="I34" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J34" t="n">
         <v>61.71842636106638</v>
@@ -33599,10 +33599,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q34" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R34" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022429</v>
       </c>
       <c r="S34" t="n">
         <v>15.21335004939748</v>
@@ -33611,7 +33611,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044603</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,19 +33651,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H35" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I35" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K35" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M35" t="n">
         <v>341.7215451562188</v>
@@ -33672,10 +33672,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O35" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q35" t="n">
         <v>210.1590056992511</v>
@@ -33687,10 +33687,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T35" t="n">
-        <v>8.519137849530358</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,10 +33733,10 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K36" t="n">
         <v>168.1415755498898</v>
@@ -33751,7 +33751,7 @@
         <v>208.1960706620275</v>
       </c>
       <c r="O36" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P36" t="n">
         <v>198.8360788845127</v>
@@ -33769,7 +33769,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248429</v>
       </c>
       <c r="H37" t="n">
-        <v>7.761427411742699</v>
+        <v>7.7614274117427</v>
       </c>
       <c r="I37" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J37" t="n">
         <v>61.71842636106638</v>
@@ -33836,10 +33836,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q37" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R37" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022429</v>
       </c>
       <c r="S37" t="n">
         <v>15.21335004939748</v>
@@ -33848,7 +33848,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044603</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,19 +33888,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H38" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I38" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L38" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
         <v>341.7215451562188</v>
@@ -33909,10 +33909,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q38" t="n">
         <v>210.1590056992511</v>
@@ -33924,10 +33924,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T38" t="n">
-        <v>8.519137849530358</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,25 +33970,25 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J39" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K39" t="n">
-        <v>105.5217924342356</v>
+        <v>168.1415755498898</v>
       </c>
       <c r="L39" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N39" t="n">
-        <v>270.8158537776819</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O39" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
         <v>198.8360788845127</v>
@@ -34006,7 +34006,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248429</v>
       </c>
       <c r="H40" t="n">
-        <v>7.761427411742699</v>
+        <v>7.7614274117427</v>
       </c>
       <c r="I40" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J40" t="n">
         <v>61.71842636106638</v>
@@ -34073,10 +34073,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q40" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R40" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022429</v>
       </c>
       <c r="S40" t="n">
         <v>15.21335004939748</v>
@@ -34085,7 +34085,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044603</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,19 +34125,19 @@
         <v>1.946119440212531</v>
       </c>
       <c r="H41" t="n">
-        <v>19.93069571707658</v>
+        <v>19.93069571707659</v>
       </c>
       <c r="I41" t="n">
-        <v>75.02776971879366</v>
+        <v>75.02776971879368</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L41" t="n">
-        <v>307.1122435613392</v>
+        <v>307.1122435613393</v>
       </c>
       <c r="M41" t="n">
         <v>341.7215451562188</v>
@@ -34146,10 +34146,10 @@
         <v>347.2509570157227</v>
       </c>
       <c r="O41" t="n">
-        <v>327.8992318321093</v>
+        <v>327.8992318321094</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518624</v>
+        <v>279.8544081518625</v>
       </c>
       <c r="Q41" t="n">
         <v>210.1590056992511</v>
@@ -34161,10 +34161,10 @@
         <v>44.34719674384309</v>
       </c>
       <c r="T41" t="n">
-        <v>8.519137849530358</v>
+        <v>8.51913784953036</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1556895552170024</v>
+        <v>0.1556895552170025</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,10 +34207,10 @@
         <v>10.05643451016806</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365583</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K42" t="n">
         <v>168.1415755498898</v>
@@ -34219,13 +34219,13 @@
         <v>226.0870982860444</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N42" t="n">
-        <v>208.1960706620275</v>
+        <v>270.815853777682</v>
       </c>
       <c r="O42" t="n">
-        <v>247.7435980350075</v>
+        <v>247.7435980350076</v>
       </c>
       <c r="P42" t="n">
         <v>198.8360788845127</v>
@@ -34243,7 +34243,7 @@
         <v>4.197031478130991</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06850432227634919</v>
+        <v>0.0685043222763492</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8729621833248428</v>
+        <v>0.8729621833248429</v>
       </c>
       <c r="H43" t="n">
-        <v>7.761427411742699</v>
+        <v>7.7614274117427</v>
       </c>
       <c r="I43" t="n">
-        <v>26.25235365853255</v>
+        <v>26.25235365853256</v>
       </c>
       <c r="J43" t="n">
         <v>61.71842636106638</v>
@@ -34310,10 +34310,10 @@
         <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>73.09867882368297</v>
+        <v>73.09867882368299</v>
       </c>
       <c r="R43" t="n">
-        <v>39.25155417022428</v>
+        <v>39.25155417022429</v>
       </c>
       <c r="S43" t="n">
         <v>15.21335004939748</v>
@@ -34322,7 +34322,7 @@
         <v>3.7299293287516</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04761611909044602</v>
+        <v>0.04761611909044603</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34447,7 +34447,7 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>35.7569906280014</v>
+        <v>98.37677374365585</v>
       </c>
       <c r="K45" t="n">
         <v>168.1415755498898</v>
@@ -34462,7 +34462,7 @@
         <v>270.815853777682</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193532</v>
       </c>
       <c r="P45" t="n">
         <v>198.8360788845127</v>
@@ -35263,7 +35263,7 @@
         <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
-        <v>18.32288867065883</v>
+        <v>40.07728895789658</v>
       </c>
       <c r="O9" t="n">
         <v>16.76186346679083</v>
@@ -35275,7 +35275,7 @@
         <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>26.12848436996845</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>4.175752044673201</v>
+      </c>
+      <c r="K10" t="n">
+        <v>6.862043349739427</v>
+      </c>
+      <c r="L10" t="n">
+        <v>8.781052968829309</v>
+      </c>
+      <c r="M10" t="n">
+        <v>9.258389161154689</v>
+      </c>
+      <c r="N10" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="K10" t="n">
-        <v>6.862043349739423</v>
-      </c>
-      <c r="L10" t="n">
-        <v>8.781052968829314</v>
-      </c>
-      <c r="M10" t="n">
-        <v>40.78769102508991</v>
-      </c>
-      <c r="N10" t="n">
-        <v>9.038245360419708</v>
-      </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="P10" t="n">
-        <v>7.143397865800722</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="Q10" t="n">
-        <v>41.31500304752734</v>
+        <v>10.56847247070539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -35418,7 +35418,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K12" t="n">
         <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
@@ -35506,7 +35506,7 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624559</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>205.1309990607778</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>124.349698583253</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
@@ -35658,7 +35658,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994723</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -35731,13 +35731,13 @@
         <v>162.0996687415861</v>
       </c>
       <c r="L15" t="n">
-        <v>217.9630089646685</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108056</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35749,7 +35749,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233554</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35810,19 +35810,19 @@
         <v>375.3116718572665</v>
       </c>
       <c r="L16" t="n">
-        <v>547.5562458447062</v>
+        <v>170.8810658749148</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O16" t="n">
         <v>118.95543570481</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q16" t="n">
         <v>240.36368292423</v>
@@ -35880,19 +35880,19 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35959,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646685</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.5006704062456</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K19" t="n">
         <v>97.77787936116994</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>281.8524450409516</v>
       </c>
       <c r="M19" t="n">
-        <v>395.7952529497142</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N19" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917227</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409513</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N22" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>282.8091884238497</v>
       </c>
       <c r="Q22" t="n">
         <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J23" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K23" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L23" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M23" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N23" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O23" t="n">
         <v>327.8992318321093</v>
       </c>
       <c r="P23" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R23" t="n">
         <v>122.2479252862504</v>
@@ -36436,22 +36436,22 @@
         <v>35.85059532462273</v>
       </c>
       <c r="J24" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365586</v>
       </c>
       <c r="K24" t="n">
         <v>168.1415755498898</v>
       </c>
       <c r="L24" t="n">
-        <v>226.0870982860444</v>
+        <v>226.0870982860445</v>
       </c>
       <c r="M24" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N24" t="n">
         <v>270.8158537776819</v>
       </c>
       <c r="O24" t="n">
-        <v>247.7435980350076</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P24" t="n">
         <v>198.8360788845127</v>
@@ -36460,7 +36460,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R24" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K25" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L25" t="n">
-        <v>552.2198926089004</v>
+        <v>335.1438888560979</v>
       </c>
       <c r="M25" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N25" t="n">
-        <v>133.5870221082462</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O25" t="n">
-        <v>355.1759712278549</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P25" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q25" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R25" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,22 +36591,22 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966229</v>
       </c>
       <c r="J26" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K26" t="n">
-        <v>247.5536907429349</v>
+        <v>247.553690742935</v>
       </c>
       <c r="L26" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M26" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N26" t="n">
-        <v>347.2509570157226</v>
+        <v>347.2509570157229</v>
       </c>
       <c r="O26" t="n">
         <v>327.8992318321093</v>
@@ -36615,7 +36615,7 @@
         <v>279.8544081518626</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R26" t="n">
         <v>122.2479252862504</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J27" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365587</v>
       </c>
       <c r="K27" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L27" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M27" t="n">
-        <v>263.8329798603127</v>
+        <v>263.8329798603128</v>
       </c>
       <c r="N27" t="n">
         <v>270.8158537776819</v>
       </c>
       <c r="O27" t="n">
-        <v>247.7435980350076</v>
+        <v>185.123814919353</v>
       </c>
       <c r="P27" t="n">
         <v>198.8360788845127</v>
@@ -36697,7 +36697,7 @@
         <v>132.9166530353912</v>
       </c>
       <c r="R27" t="n">
-        <v>2.030029293945518</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>61.71842636106638</v>
+        <v>61.71842636106642</v>
       </c>
       <c r="K28" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L28" t="n">
         <v>552.2198926089004</v>
       </c>
       <c r="M28" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106521</v>
       </c>
       <c r="N28" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O28" t="n">
-        <v>165.795826653489</v>
+        <v>330.221565401534</v>
       </c>
       <c r="P28" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q28" t="n">
         <v>73.0986788236828</v>
       </c>
       <c r="R28" t="n">
-        <v>18.04791108854245</v>
+        <v>18.04791108854246</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,16 +36828,16 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>74.61514823966225</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J29" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K29" t="n">
         <v>247.5536907429349</v>
       </c>
       <c r="L29" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M29" t="n">
         <v>341.7215451562188</v>
@@ -36849,13 +36849,13 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P29" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q29" t="n">
         <v>210.1590056992509</v>
       </c>
       <c r="R29" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J30" t="n">
-        <v>35.75699062800152</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K30" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L30" t="n">
         <v>226.0870982860444</v>
@@ -36925,7 +36925,7 @@
         <v>270.8158537776819</v>
       </c>
       <c r="O30" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193532</v>
       </c>
       <c r="P30" t="n">
         <v>198.8360788845127</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K31" t="n">
-        <v>378.9561261587464</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L31" t="n">
-        <v>552.2198926089005</v>
+        <v>335.1438888560973</v>
       </c>
       <c r="M31" t="n">
         <v>600.9659086106519</v>
       </c>
       <c r="N31" t="n">
-        <v>252.2657029850066</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O31" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P31" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q31" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R31" t="n">
         <v>18.04791108854245</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J32" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K32" t="n">
         <v>247.5536907429349</v>
@@ -37086,10 +37086,10 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P32" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q32" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R32" t="n">
         <v>122.2479252862504</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J33" t="n">
-        <v>35.75699062800163</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K33" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L33" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M33" t="n">
-        <v>263.8329798603129</v>
+        <v>263.8329798603127</v>
       </c>
       <c r="N33" t="n">
         <v>270.8158537776819</v>
@@ -37165,13 +37165,13 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P33" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.9166530353909</v>
+        <v>70.29686991973676</v>
       </c>
       <c r="R33" t="n">
-        <v>64.64981240960014</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37232,16 +37232,16 @@
         <v>101.4223336626499</v>
       </c>
       <c r="L34" t="n">
-        <v>335.1438888560973</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M34" t="n">
-        <v>600.9659086106519</v>
+        <v>600.9659086106518</v>
       </c>
       <c r="N34" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O34" t="n">
-        <v>547.2975691543368</v>
+        <v>330.221565401534</v>
       </c>
       <c r="P34" t="n">
         <v>105.5808080632155</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J35" t="n">
-        <v>165.1744548387387</v>
+        <v>165.1744548387383</v>
       </c>
       <c r="K35" t="n">
         <v>247.553690742935</v>
       </c>
       <c r="L35" t="n">
-        <v>307.1122435613393</v>
+        <v>307.1122435613394</v>
       </c>
       <c r="M35" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N35" t="n">
         <v>347.2509570157226</v>
@@ -37323,10 +37323,10 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P35" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q35" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R35" t="n">
         <v>122.2479252862504</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J36" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K36" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L36" t="n">
         <v>226.0870982860444</v>
@@ -37469,16 +37469,16 @@
         <v>101.4223336626499</v>
       </c>
       <c r="L37" t="n">
-        <v>335.1438888560973</v>
+        <v>552.2198926089004</v>
       </c>
       <c r="M37" t="n">
-        <v>600.9659086106519</v>
+        <v>600.9659086106518</v>
       </c>
       <c r="N37" t="n">
-        <v>580.3130859038467</v>
+        <v>580.313085903847</v>
       </c>
       <c r="O37" t="n">
-        <v>547.2975691543368</v>
+        <v>330.221565401534</v>
       </c>
       <c r="P37" t="n">
         <v>105.5808080632155</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J38" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K38" t="n">
-        <v>247.5536907429351</v>
+        <v>247.5536907429349</v>
       </c>
       <c r="L38" t="n">
         <v>307.1122435613393</v>
       </c>
       <c r="M38" t="n">
-        <v>341.7215451562188</v>
+        <v>341.7215451562189</v>
       </c>
       <c r="N38" t="n">
         <v>347.2509570157226</v>
       </c>
       <c r="O38" t="n">
-        <v>327.8992318321095</v>
+        <v>327.8992318321089</v>
       </c>
       <c r="P38" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q38" t="n">
         <v>210.1590056992509</v>
       </c>
       <c r="R38" t="n">
-        <v>122.2479252862504</v>
+        <v>122.2479252862508</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>35.85059532462276</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J39" t="n">
-        <v>98.3767737436558</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K39" t="n">
-        <v>105.5217924342356</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L39" t="n">
-        <v>226.0870982860445</v>
+        <v>226.0870982860444</v>
       </c>
       <c r="M39" t="n">
-        <v>263.8329798603129</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N39" t="n">
         <v>270.8158537776819</v>
@@ -37639,13 +37639,13 @@
         <v>247.7435980350076</v>
       </c>
       <c r="P39" t="n">
-        <v>198.8360788845125</v>
+        <v>198.8360788845127</v>
       </c>
       <c r="Q39" t="n">
-        <v>132.9166530353909</v>
+        <v>132.9166530353912</v>
       </c>
       <c r="R39" t="n">
-        <v>64.64981240960014</v>
+        <v>64.64981240959992</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106639</v>
       </c>
       <c r="K40" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L40" t="n">
-        <v>224.1725096900605</v>
+        <v>335.1438888560973</v>
       </c>
       <c r="M40" t="n">
         <v>600.9659086106519</v>
       </c>
       <c r="N40" t="n">
-        <v>580.313085903847</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O40" t="n">
-        <v>123.3892366030423</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P40" t="n">
         <v>105.5808080632155</v>
       </c>
       <c r="Q40" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R40" t="n">
         <v>18.04791108854245</v>
@@ -37776,10 +37776,10 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>74.61514823966226</v>
+        <v>74.61514823966228</v>
       </c>
       <c r="J41" t="n">
-        <v>165.1744548387384</v>
+        <v>165.1744548387385</v>
       </c>
       <c r="K41" t="n">
         <v>247.5536907429349</v>
@@ -37797,10 +37797,10 @@
         <v>327.8992318321093</v>
       </c>
       <c r="P41" t="n">
-        <v>279.8544081518626</v>
+        <v>279.8544081518623</v>
       </c>
       <c r="Q41" t="n">
-        <v>210.1590056992509</v>
+        <v>210.1590056992513</v>
       </c>
       <c r="R41" t="n">
         <v>122.2479252862504</v>
@@ -37855,22 +37855,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.85059532462273</v>
+        <v>35.85059532462274</v>
       </c>
       <c r="J42" t="n">
-        <v>98.37677374365585</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K42" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L42" t="n">
         <v>226.0870982860444</v>
       </c>
       <c r="M42" t="n">
-        <v>263.8329798603127</v>
+        <v>201.2131967446583</v>
       </c>
       <c r="N42" t="n">
-        <v>208.1960706620275</v>
+        <v>270.8158537776819</v>
       </c>
       <c r="O42" t="n">
         <v>247.7435980350076</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>149.172653800147</v>
+        <v>61.71842636106638</v>
       </c>
       <c r="K43" t="n">
-        <v>378.9561261587465</v>
+        <v>101.4223336626499</v>
       </c>
       <c r="L43" t="n">
-        <v>552.2198926089004</v>
+        <v>335.1438888560978</v>
       </c>
       <c r="M43" t="n">
-        <v>136.8407902460933</v>
+        <v>600.9659086106519</v>
       </c>
       <c r="N43" t="n">
-        <v>133.5870221082462</v>
+        <v>580.3130859038467</v>
       </c>
       <c r="O43" t="n">
-        <v>355.1759712278549</v>
+        <v>547.2975691543368</v>
       </c>
       <c r="P43" t="n">
-        <v>456.5978726797223</v>
+        <v>105.5808080632155</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.9903706058367</v>
+        <v>73.0986788236828</v>
       </c>
       <c r="R43" t="n">
         <v>18.04791108854245</v>
@@ -38095,10 +38095,10 @@
         <v>35.85059532462274</v>
       </c>
       <c r="J45" t="n">
-        <v>35.7569906280014</v>
+        <v>98.37677374365583</v>
       </c>
       <c r="K45" t="n">
-        <v>168.1415755498898</v>
+        <v>168.1415755498899</v>
       </c>
       <c r="L45" t="n">
         <v>226.0870982860444</v>
@@ -38110,7 +38110,7 @@
         <v>270.8158537776819</v>
       </c>
       <c r="O45" t="n">
-        <v>247.7435980350076</v>
+        <v>185.1238149193532</v>
       </c>
       <c r="P45" t="n">
         <v>198.8360788845127</v>
@@ -38180,19 +38180,19 @@
         <v>101.4223336626499</v>
       </c>
       <c r="L46" t="n">
-        <v>335.1438888560978</v>
+        <v>448.2519426041495</v>
       </c>
       <c r="M46" t="n">
-        <v>600.9659086106519</v>
+        <v>136.8407902460933</v>
       </c>
       <c r="N46" t="n">
-        <v>580.3130859038467</v>
+        <v>580.3130859038469</v>
       </c>
       <c r="O46" t="n">
         <v>547.2975691543368</v>
       </c>
       <c r="P46" t="n">
-        <v>105.5808080632155</v>
+        <v>456.5978726797223</v>
       </c>
       <c r="Q46" t="n">
         <v>73.0986788236828</v>
